--- a/Menu, Role, Access.xlsx
+++ b/Menu, Role, Access.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Role" sheetId="2" r:id="rId2"/>
+    <sheet name="API - Company" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Goods Receipt / Penerimaan barang</t>
   </si>
@@ -136,6 +137,39 @@
   </si>
   <si>
     <t>Mengkoordinasikan aktivitas transportasi dan logistik. Bekerja sama dengan pengangkut, pemasok, dan tim internal untuk memastikan pengiriman barang tepat waktu dan efisien secara biaya. Mengelola jadwal transportasi dan menyelesaikan masalah logistik.</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>/company/create/</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization </t>
+  </si>
+  <si>
+    <t>Header Value</t>
+  </si>
+  <si>
+    <t>Bearer eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJkYXRhIjoie1wiYXBwaWRcIjpcInNjbVwiLFwidXNlcmNkYlwiOlwiV1ZoQ2NHRXlWalZNV0ZsNVRGUk5lV1F5TkRCT2VscHdaRlJSZWxwNmFITmtiWFJ1WWxoQk0yUXpaR3BqTTAxNllUSmtNMlJFUlRSUFJFa3hXbFJSTUdKWVdURmplbFl5XCIsXCJwYXNzY2RiXCI6XCJUakpLYlU5VWF6Sk9iVkpzV1hwWk1WbHFWbWxPTWtVeFRWUkpNMXBVUVRKT1ZGVXhXa2RSTlU1VVVUMD1cIixcImhvc3RjZGJcIjpcIldtMVplVmxVYTNsT1JFMTBUMVJCZWxwVE1EQmFSRlpyVEZSb2FWbDZRWFJOVkUxNFdsUnJNRTlFWkdsYVZFRjRURmRLYzJSWFZuUmhXR2QxV1RKNGRtUlhVbWhpYmxKMVlqTk9lR0pIVW1sTWJVWjNZMGRTZG1KWFJuQmlhVFZxWWtjNU1WcEJQVDA9XCIsXCJ1c2VycmVkaXNcIjpcIldrZFdiVmxZVm5Oa1FUMDlcIixcInBhc3NyZWRpc1wiOlwiVFVkRmVrOUVaekpaTWtsM1RYcFpNRTVFVW0xYVYwbDNXWHBWTTAxVVkzZE9WMFV5V2xkS2EwNHlTVDA9XCIsXCJob3N0cmVkaXNcIjpcIldWaENkVTFUTVhKYVdHdDBXbTFzZFZreVozUk5lbEV4VG5wWmRXUllRbnBrUjBaNllVTTFjR0ozUFQwPVwiLFwicG9ydHJlZGlzXCI6XCJUWHBSTVU1NldUMD1cIn0iLCJleHAiOjE2OTk4Mzk5OTYyMDE2OTF9.a1gQDpQgk6DjILSWn6qrJyzPa2RMKhY8VtwwyLpnbgU</t>
+  </si>
+  <si>
+    <t>Body raw</t>
+  </si>
+  <si>
+    <t>{ "table": "company", "name": "Suka Makmur Sejahtera", "levelmembership": "default", "alias": "sms", "contact": [ { "email": "", "phone": "", "mobile": "085186803737" } ] }</t>
+  </si>
+  <si>
+    <t>Response 200</t>
   </si>
 </sst>
 </file>
@@ -308,40 +342,40 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,123 +682,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -786,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -797,7 +831,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -847,6 +881,65 @@
       </c>
       <c r="B7" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
